--- a/datasets_single/kpca_gent.xlsx
+++ b/datasets_single/kpca_gent.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2AA2420-3D0C-E046-95E9-35604E185F87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70A603-9625-BB42-A405-33B513A76F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ATCC_meropenem" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="7">
   <si>
     <t>replicate</t>
   </si>
@@ -38,6 +51,9 @@
   </si>
   <si>
     <t>KPCA</t>
+  </si>
+  <si>
+    <t>gent_s</t>
   </si>
 </sst>
 </file>
@@ -885,15 +901,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E37"/>
+      <selection activeCell="F2" sqref="F2:F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -909,8 +925,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -926,8 +945,12 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <f>E2*42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -941,10 +964,14 @@
         <v>9.66</v>
       </c>
       <c r="E3" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.23749999999999999</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F57" si="0">E3*42</f>
+        <v>9.9749999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -958,10 +985,14 @@
         <v>9.25</v>
       </c>
       <c r="E4" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -975,10 +1006,14 @@
         <v>9.83</v>
       </c>
       <c r="E5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -992,10 +1027,14 @@
         <v>20</v>
       </c>
       <c r="E6" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1009,10 +1048,14 @@
         <v>24</v>
       </c>
       <c r="E7" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1028,8 +1071,12 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1043,10 +1090,14 @@
         <v>9.5</v>
       </c>
       <c r="E9" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1060,10 +1111,14 @@
         <v>10.17</v>
       </c>
       <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1077,10 +1132,14 @@
         <v>23</v>
       </c>
       <c r="E11" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1094,10 +1153,14 @@
         <v>24</v>
       </c>
       <c r="E12" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1113,8 +1176,12 @@
       <c r="E13" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1128,10 +1195,14 @@
         <v>11</v>
       </c>
       <c r="E14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1147,8 +1218,12 @@
       <c r="E15" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1162,10 +1237,14 @@
         <v>10.9</v>
       </c>
       <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1179,10 +1258,14 @@
         <v>22</v>
       </c>
       <c r="E17" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1198,8 +1281,12 @@
       <c r="E18" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1213,10 +1300,14 @@
         <v>10</v>
       </c>
       <c r="E19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1230,10 +1321,14 @@
         <v>18</v>
       </c>
       <c r="E20" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1249,8 +1344,12 @@
       <c r="E21" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1264,10 +1363,14 @@
         <v>17.25</v>
       </c>
       <c r="E22" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1283,8 +1386,12 @@
       <c r="E23" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1298,10 +1405,14 @@
         <v>10</v>
       </c>
       <c r="E24" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1315,10 +1426,14 @@
         <v>20</v>
       </c>
       <c r="E25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1334,8 +1449,12 @@
       <c r="E26" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -1349,10 +1468,14 @@
         <v>10</v>
       </c>
       <c r="E27" s="1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>19.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1366,10 +1489,14 @@
         <v>12.17</v>
       </c>
       <c r="E28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.95</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>39.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1383,10 +1510,14 @@
         <v>24</v>
       </c>
       <c r="E29" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1402,8 +1533,12 @@
       <c r="E30" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -1417,10 +1552,14 @@
         <v>9.75</v>
       </c>
       <c r="E31" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.425</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -1434,10 +1573,14 @@
         <v>24</v>
       </c>
       <c r="E32" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -1451,10 +1594,14 @@
         <v>24</v>
       </c>
       <c r="E33" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.8</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -1470,8 +1617,12 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>10</v>
       </c>
@@ -1485,10 +1636,14 @@
         <v>9.25</v>
       </c>
       <c r="E35" s="1">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.425</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>59.85</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1502,10 +1657,14 @@
         <v>21.9</v>
       </c>
       <c r="E36" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+        <v>1.9</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -1519,7 +1678,431 @@
         <v>24</v>
       </c>
       <c r="E37" s="1">
-        <v>4</v>
+        <v>3.8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>159.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>10000</v>
+      </c>
+      <c r="D38">
+        <v>9.5</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39">
+        <v>10000</v>
+      </c>
+      <c r="D39">
+        <v>17</v>
+      </c>
+      <c r="E39">
+        <v>1.5</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40">
+        <v>10000</v>
+      </c>
+      <c r="D40">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>1.75</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>12</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>10000</v>
+      </c>
+      <c r="D41">
+        <v>9.5</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42">
+        <v>10000</v>
+      </c>
+      <c r="D42">
+        <v>11.2</v>
+      </c>
+      <c r="E42">
+        <v>1.25</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>10000</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>1.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44">
+        <v>10000</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>10000</v>
+      </c>
+      <c r="D45">
+        <v>9.5</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>10000</v>
+      </c>
+      <c r="D46">
+        <v>9.4</v>
+      </c>
+      <c r="E46">
+        <v>1.25</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>10000</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47">
+        <v>1.5</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>10000</v>
+      </c>
+      <c r="D48">
+        <v>24</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>14</v>
+      </c>
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>10000</v>
+      </c>
+      <c r="D49">
+        <v>9</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50">
+        <v>10000</v>
+      </c>
+      <c r="D50">
+        <v>9.6</v>
+      </c>
+      <c r="E50">
+        <v>1.25</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51">
+        <v>10000</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="E51">
+        <v>1.5</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52">
+        <v>10000</v>
+      </c>
+      <c r="D52">
+        <v>19</v>
+      </c>
+      <c r="E52">
+        <v>1.75</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>15</v>
+      </c>
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53">
+        <v>10000</v>
+      </c>
+      <c r="D53">
+        <v>9.4</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>15</v>
+      </c>
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54">
+        <v>10000</v>
+      </c>
+      <c r="D54">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E54">
+        <v>1.25</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>10000</v>
+      </c>
+      <c r="D55">
+        <v>11.33</v>
+      </c>
+      <c r="E55">
+        <v>1.5</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>15</v>
+      </c>
+      <c r="B56" t="s">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>10000</v>
+      </c>
+      <c r="D56">
+        <v>19</v>
+      </c>
+      <c r="E56">
+        <v>1.75</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>73.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>15</v>
+      </c>
+      <c r="B57" t="s">
+        <v>5</v>
+      </c>
+      <c r="C57">
+        <v>10000</v>
+      </c>
+      <c r="D57">
+        <v>24</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/datasets_single/kpca_gent.xlsx
+++ b/datasets_single/kpca_gent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/russelllewis/Desktop/ACUTEWEBSITE/datasets_single/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A70A603-9625-BB42-A405-33B513A76F58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FDDBA60-F1F4-A844-BBB0-F41A041EB030}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5940" yWindow="1700" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="8">
   <si>
     <t>replicate</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>gent_s</t>
+  </si>
+  <si>
+    <t>gent_mic</t>
   </si>
 </sst>
 </file>
@@ -901,15 +904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F57"/>
+      <selection activeCell="G2" sqref="G2:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -928,8 +931,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -949,8 +955,12 @@
         <f>E2*42</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2">
+        <f xml:space="preserve"> E2/2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -970,8 +980,12 @@
         <f t="shared" ref="F3:F57" si="0">E3*42</f>
         <v>9.9749999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3">
+        <f t="shared" ref="G3:G57" si="1" xml:space="preserve"> E3/2</f>
+        <v>0.11874999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -991,8 +1005,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1012,8 +1030,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1033,8 +1055,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -1054,8 +1080,12 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1075,8 +1105,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1096,8 +1130,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -1117,8 +1155,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2</v>
       </c>
@@ -1138,8 +1180,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1159,8 +1205,12 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1180,8 +1230,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -1201,8 +1255,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -1222,8 +1280,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -1243,8 +1305,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -1264,8 +1330,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>5</v>
       </c>
@@ -1285,8 +1355,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>5</v>
       </c>
@@ -1306,8 +1380,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>5</v>
       </c>
@@ -1327,8 +1405,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>6</v>
       </c>
@@ -1348,8 +1430,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>6</v>
       </c>
@@ -1369,8 +1455,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7</v>
       </c>
@@ -1390,8 +1480,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7</v>
       </c>
@@ -1411,8 +1505,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7</v>
       </c>
@@ -1432,8 +1530,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>8</v>
       </c>
@@ -1453,8 +1555,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>8</v>
       </c>
@@ -1474,8 +1580,12 @@
         <f t="shared" si="0"/>
         <v>19.95</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.23749999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>8</v>
       </c>
@@ -1495,8 +1605,12 @@
         <f t="shared" si="0"/>
         <v>39.9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.47499999999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>8</v>
       </c>
@@ -1516,8 +1630,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>9</v>
       </c>
@@ -1537,8 +1655,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>9</v>
       </c>
@@ -1558,8 +1680,12 @@
         <f t="shared" si="0"/>
         <v>59.85</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>9</v>
       </c>
@@ -1579,8 +1705,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>9</v>
       </c>
@@ -1600,8 +1730,12 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>10</v>
       </c>
@@ -1621,8 +1755,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>10</v>
       </c>
@@ -1642,8 +1780,12 @@
         <f t="shared" si="0"/>
         <v>59.85</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35">
+        <f t="shared" si="1"/>
+        <v>0.71250000000000002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -1663,8 +1805,12 @@
         <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36">
+        <f t="shared" si="1"/>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>10</v>
       </c>
@@ -1684,8 +1830,12 @@
         <f t="shared" si="0"/>
         <v>159.6</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37">
+        <f t="shared" si="1"/>
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>11</v>
       </c>
@@ -1705,8 +1855,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11</v>
       </c>
@@ -1726,8 +1880,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>11</v>
       </c>
@@ -1747,8 +1905,12 @@
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>12</v>
       </c>
@@ -1768,8 +1930,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>12</v>
       </c>
@@ -1789,8 +1955,12 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>12</v>
       </c>
@@ -1810,8 +1980,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>12</v>
       </c>
@@ -1831,8 +2005,12 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>13</v>
       </c>
@@ -1852,8 +2030,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>13</v>
       </c>
@@ -1873,8 +2055,12 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>13</v>
       </c>
@@ -1894,8 +2080,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>13</v>
       </c>
@@ -1915,8 +2105,12 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>14</v>
       </c>
@@ -1936,8 +2130,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>14</v>
       </c>
@@ -1957,8 +2155,12 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>14</v>
       </c>
@@ -1978,8 +2180,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>14</v>
       </c>
@@ -1999,8 +2205,12 @@
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>15</v>
       </c>
@@ -2020,8 +2230,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>15</v>
       </c>
@@ -2041,8 +2255,12 @@
         <f t="shared" si="0"/>
         <v>52.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>15</v>
       </c>
@@ -2062,8 +2280,12 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>15</v>
       </c>
@@ -2083,8 +2305,12 @@
         <f t="shared" si="0"/>
         <v>73.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>15</v>
       </c>
@@ -2103,6 +2329,10 @@
       <c r="F57">
         <f t="shared" si="0"/>
         <v>84</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
